--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12942" uniqueCount="72">
+  <si>
+    <t>Triển-khai-HCM_Trần-Phạm-Việt-Tâm.pdf</t>
+  </si>
   <si>
     <t>0334636735</t>
   </si>
@@ -22,24 +25,39 @@
     <t>viettam9a2cva@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Trần-Đức-Duy.pdf</t>
+  </si>
+  <si>
     <t>0944574683</t>
   </si>
   <si>
     <t>duyhuynh0399@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai_Nguyễn-Thanh-Nam.pdf</t>
+  </si>
+  <si>
     <t>0933306170</t>
   </si>
   <si>
     <t>thanhnam21597@gmail.com</t>
   </si>
   <si>
+    <t>data/02.2023_Cloud-Engineer_Lê-Bá-Lực.pdf</t>
+  </si>
+  <si>
     <t>lebaluc.atk@gmail.com</t>
   </si>
   <si>
+    <t>Cloud_Toàn-Nguyễn.pdf</t>
+  </si>
+  <si>
     <t>toannt.mir@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Nguyễn-Sỹ-Dy-Đan.pdf</t>
+  </si>
+  <si>
     <t>02031998</t>
   </si>
   <si>
@@ -49,6 +67,9 @@
     <t>0328182216</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Hàng-Nhân-Hoà.pdf</t>
+  </si>
+  <si>
     <t>0971145502</t>
   </si>
   <si>
@@ -64,18 +85,27 @@
     <t>0966282960</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Trần-Nhật-Trường.pdf</t>
+  </si>
+  <si>
     <t>0969606340</t>
   </si>
   <si>
     <t>Nhattruong.gtlk@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Đặng-Tấn-Sang.pdf</t>
+  </si>
+  <si>
     <t>0392500702</t>
   </si>
   <si>
     <t>dangtansang1999@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Trần-Ngọc-Sang.pdf</t>
+  </si>
+  <si>
     <t>04041995</t>
   </si>
   <si>
@@ -85,48 +115,75 @@
     <t>transang445@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Nguyễn-Hoàng-Bảo.pdf</t>
+  </si>
+  <si>
     <t>0919873551</t>
   </si>
   <si>
     <t>hoangbao300998@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Trần-Quốc-Thắng.pdf</t>
+  </si>
+  <si>
     <t>Thangtq150889@yahoo.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Nguyễn-Ngọc-Thắng.pdf</t>
+  </si>
+  <si>
     <t>thangnn2711@gmail.com</t>
   </si>
   <si>
     <t>0911806055</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Cao-Minh-Khang.pdf</t>
+  </si>
+  <si>
     <t>0345089992</t>
   </si>
   <si>
     <t>cminhkhang@gmail.com</t>
   </si>
   <si>
+    <t>Presale_Lê-Cong-Huyền.pdf</t>
+  </si>
+  <si>
     <t>conghuyen08@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Bùi-Thiên-Đạo.pdf</t>
+  </si>
+  <si>
     <t>0366889712</t>
   </si>
   <si>
     <t>bthiendao@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Nguyễn-Hoàng-Tuấn.pdf</t>
+  </si>
+  <si>
     <t>0775232527</t>
   </si>
   <si>
     <t>nhoangtuan17@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Phạm-NGọc-Phước.pdf</t>
+  </si>
+  <si>
     <t>0902408705</t>
   </si>
   <si>
     <t>ngocphuoc696@gmail.com</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Phạm-Văn-Vũ.pdf</t>
+  </si>
+  <si>
     <t>0353408306</t>
   </si>
   <si>
@@ -139,22 +196,34 @@
     <t>nguyenduy@sms-vn.com</t>
   </si>
   <si>
+    <t>data/CV_NguyenHoaiNam.pdf</t>
+  </si>
+  <si>
     <t>hoainam.hn22@gmail.com</t>
   </si>
   <si>
     <t>0328698222</t>
   </si>
   <si>
+    <t>Triển-khai-HCM_Đỗ-Thành-Đạt.pdf</t>
+  </si>
+  <si>
     <t>0981163725</t>
   </si>
   <si>
     <t>thanhdat.302k@gmail.com</t>
   </si>
   <si>
+    <t>data/02.2023_Cloud-Engineer_Phạm-Văn-Hoàng.pdf</t>
+  </si>
+  <si>
     <t>0326004555</t>
   </si>
   <si>
     <t>hoangpham98bg@gmail.com</t>
+  </si>
+  <si>
+    <t>Triển-khai-HCM_Nguyễn-Minh-Thuận.pdf</t>
   </si>
   <si>
     <t>0969430651</t>
@@ -492,182 +561,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
